--- a/medicine/Psychotrope/Sticke/Sticke.xlsx
+++ b/medicine/Psychotrope/Sticke/Sticke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sticke ou Sticke Alt est un type de bière d'origine germanique brassé à Düsseldorf. C'est une variété saisonnière plus sombre et plus forte de l'Altbier inventée par la brasserie Uerige qui la brasse deux fois par an afin qu'elle soit prête le troisième mardi de janvier et le troisième mardi d'octobre. 
 Sticke est le terme vernaculaire pour « secret », qui signifie que la brasserie ne révèle pas la recette. Il semble d'ailleurs que ceci était dû à une erreur si bien que d'année en année, les caractéristiques de la bière changeaient.
